--- a/data/outputs/management/93.xlsx
+++ b/data/outputs/management/93.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ24"/>
+  <dimension ref="A1:BR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4913009</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1144,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>6761864</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1358,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1560,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1753,6 +1770,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4260028</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1926,6 +1948,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2127,6 +2150,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>13616819</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2332,6 +2360,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4612628</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2529,6 +2562,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2730,6 +2764,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2931,6 +2966,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3144,6 +3180,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3357,6 +3394,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3558,6 +3596,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3771,6 +3810,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3980,6 +4020,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4181,6 +4222,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4354,6 +4396,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4440,7 +4483,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Miller, Danny/0000-0001-8428-7640; </t>
+          <t>Miller, Danny/0000-0001-8428-7640;</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr"/>
@@ -4559,6 +4602,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3900647</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4760,6 +4808,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4969,6 +5018,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>3392396</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5174,6 +5228,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5379,6 +5434,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
